--- a/0102LESSON15/天氣預測1天.xlsx
+++ b/0102LESSON15/天氣預測1天.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,23 +476,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -507,23 +507,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -538,23 +538,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -569,23 +569,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -600,23 +600,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -631,23 +631,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -662,23 +662,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -693,23 +693,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -724,23 +724,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -755,23 +755,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -786,23 +786,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -817,23 +817,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -848,23 +848,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -879,23 +879,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -910,23 +910,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -941,23 +941,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>寒冷至舒適</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -972,23 +972,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -1003,23 +1003,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>寒冷至舒適</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -1034,23 +1034,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -1065,23 +1065,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -1096,23 +1096,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>寒冷至稍有寒意</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
@@ -1127,23 +1127,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-05-17 18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-01-04 06:00:00</t>
+          <t>2024-05-18 06:00:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>寒冷</t>
+          <t>舒適</t>
         </is>
       </c>
     </row>
